--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -29,9 +29,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global tax on millionaires</t>
   </si>
   <si>
@@ -62,7 +59,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU)</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -410,228 +407,192 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.823529411764706</v>
+        <v>0.84375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.682926829268293</v>
+        <v>0.826086956521739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
+        <v>0.850746268656716</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.876543209876543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.854545454545454</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.769230769230769</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.686274509803922</v>
+        <v>0.744897959183674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.807692307692308</v>
+        <v>0.689922480620155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.869565217391304</v>
+        <v>0.765957446808511</v>
       </c>
       <c r="E4" t="n">
-        <v>0.74468085106383</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.558823529411765</v>
+        <v>0.655172413793103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.673469387755102</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8</v>
+        <v>0.835714285714286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.916666666666667</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="E5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.728571428571429</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.714285714285714</v>
+        <v>0.76530612244898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.652173913043478</v>
+        <v>0.817460317460317</v>
       </c>
       <c r="D6" t="n">
-        <v>0.80952380952381</v>
+        <v>0.71875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.615384615384615</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.408163265306122</v>
+        <v>0.602409638554217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.409090909090909</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.631578947368421</v>
+        <v>0.489130434782609</v>
       </c>
       <c r="E7" t="n">
-        <v>0.538461538461539</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.366666666666667</v>
+        <v>0.703703703703704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.617021276595745</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>0.699029126213592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.777777777777778</v>
+        <v>0.675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.682926829268293</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.604166666666667</v>
+        <v>0.708333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.428571428571429</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.863636363636364</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="D9" t="n">
-        <v>0.727272727272727</v>
+        <v>0.756410256410256</v>
       </c>
       <c r="E9" t="n">
-        <v>0.657894736842105</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.627450980392157</v>
+        <v>0.821428571428571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.755102040816327</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.764705882352941</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="D10" t="n">
-        <v>0.869565217391304</v>
+        <v>0.764044943820225</v>
       </c>
       <c r="E10" t="n">
-        <v>0.842105263157895</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.616666666666667</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.867924528301887</v>
+        <v>0.884210526315789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.92</v>
+        <v>0.803149606299213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.901960784313726</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.584615384615385</v>
+        <v>0.821428571428571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65</v>
+        <v>0.641304347826087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.608695652173913</v>
+        <v>0.561151079136691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.65</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="E12" t="n">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.372881355932203</v>
+        <v>0.62962962962963</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
@@ -407,192 +410,224 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.84375</v>
+        <v>0.8300395256917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.837837837837838</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.803571428571429</v>
+        <v>0.879828326180258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.826086956521739</v>
-      </c>
+        <v>0.810035842293907</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.850746268656716</v>
+        <v>0.781481481481481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.876543209876543</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.854545454545454</v>
+        <v>0.892703862660944</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0.857638888888889</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.744897959183674</v>
+        <v>0.686274509803922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.689922480620155</v>
+        <v>0.689716312056738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.765957446808511</v>
+        <v>0.804147465437788</v>
       </c>
       <c r="E4" t="n">
-        <v>0.655172413793103</v>
+        <v>0.667359667359667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.550151975683891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.810526315789474</v>
+        <v>0.803455723542117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.835714285714286</v>
+        <v>0.823333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.842105263157895</v>
+        <v>0.850678733031674</v>
       </c>
       <c r="E5" t="n">
-        <v>0.666666666666667</v>
+        <v>0.798850574712644</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.677653902084343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.76530612244898</v>
+        <v>0.741721854304636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.817460317460317</v>
+        <v>0.79020979020979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71875</v>
+        <v>0.775229357798165</v>
       </c>
       <c r="E6" t="n">
-        <v>0.59375</v>
+        <v>0.709090909090909</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.592648539778449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.602409638554217</v>
+        <v>0.528436018957346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.459459459459459</v>
+        <v>0.435452793834297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.489130434782609</v>
+        <v>0.601965601965602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.703703703703704</v>
+        <v>0.587301587301587</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.452247191011236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.740740740740741</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.699029126213592</v>
+        <v>0.695364238410596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.675</v>
+        <v>0.760526315789474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.708333333333333</v>
+        <v>0.6953125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.569230769230769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.608695652173913</v>
+        <v>0.595693779904306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.695652173913043</v>
+        <v>0.718095238095238</v>
       </c>
       <c r="D9" t="n">
-        <v>0.756410256410256</v>
+        <v>0.786885245901639</v>
       </c>
       <c r="E9" t="n">
-        <v>0.821428571428571</v>
+        <v>0.844036697247706</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.627764127764128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.866666666666667</v>
+        <v>0.792941176470588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.823529411764706</v>
+        <v>0.794117647058824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.764044943820225</v>
+        <v>0.807228915662651</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875</v>
+        <v>0.816120906801008</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.630372492836676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.884210526315789</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.803149606299213</v>
+        <v>0.847790507364976</v>
       </c>
       <c r="D11" t="n">
-        <v>0.875</v>
+        <v>0.906040268456376</v>
       </c>
       <c r="E11" t="n">
-        <v>0.821428571428571</v>
+        <v>0.87378640776699</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6211714132187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.641304347826087</v>
+        <v>0.57906976744186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.561151079136691</v>
+        <v>0.608247422680412</v>
       </c>
       <c r="D12" t="n">
-        <v>0.557894736842105</v>
+        <v>0.618556701030928</v>
       </c>
       <c r="E12" t="n">
-        <v>0.62962962962963</v>
+        <v>0.667359667359667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.465809768637532</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,40 +35,37 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National tax on millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -413,221 +416,257 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8300395256917</v>
+        <v>0.538044440029806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.847826086956522</v>
+        <v>0.702469990857743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.879828326180258</v>
+        <v>0.707293188123593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.810035842293907</v>
-      </c>
-      <c r="F2"/>
+        <v>0.678531476441131</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.795005097178626</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.715842408378674</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.781481481481481</v>
+        <v>0.668478309868828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.868421052631579</v>
+        <v>0.816969818943951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.892703862660944</v>
+        <v>0.828243452528983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.857638888888889</v>
-      </c>
-      <c r="F3"/>
+        <v>0.808344622780676</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.866080609608524</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.788739473201268</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.686274509803922</v>
+        <v>0.586361547078264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.689716312056738</v>
+        <v>0.761213696055523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.804147465437788</v>
+        <v>0.767545156610846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.667359667359667</v>
+        <v>0.783881851539796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.550151975683891</v>
+        <v>0.778077888822029</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.736775434783277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.803455723542117</v>
+        <v>0.445165647241385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.823333333333333</v>
+        <v>0.519784123197685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.850678733031674</v>
+        <v>0.538272957724401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.798850574712644</v>
+        <v>0.42192097757509</v>
       </c>
       <c r="F5" t="n">
-        <v>0.677653902084343</v>
+        <v>0.623992886988593</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.629002808743572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.741721854304636</v>
+        <v>0.565484343994484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.79020979020979</v>
+        <v>0.694703338925022</v>
       </c>
       <c r="D6" t="n">
-        <v>0.775229357798165</v>
+        <v>0.696738300729926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.709090909090909</v>
+        <v>0.663105221608136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.592648539778449</v>
+        <v>0.764082500232851</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.682020895993832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.528436018957346</v>
+        <v>0.615412381763385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.435452793834297</v>
+        <v>0.728100139398786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.601965601965602</v>
+        <v>0.595780185866169</v>
       </c>
       <c r="E7" t="n">
-        <v>0.587301587301587</v>
+        <v>0.722549697453689</v>
       </c>
       <c r="F7" t="n">
-        <v>0.452247191011236</v>
+        <v>0.81292373408132</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.835305897365594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.666666666666667</v>
+        <v>0.615539662201057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.695364238410596</v>
+        <v>0.794190438711587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.760526315789474</v>
+        <v>0.815787653966067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6953125</v>
+        <v>0.77283009201333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.569230769230769</v>
+        <v>0.809079647356019</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.843401261799519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.595693779904306</v>
+        <v>0.610092195899231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.718095238095238</v>
+        <v>0.87440141332867</v>
       </c>
       <c r="D9" t="n">
-        <v>0.786885245901639</v>
+        <v>0.906115344887832</v>
       </c>
       <c r="E9" t="n">
-        <v>0.844036697247706</v>
+        <v>0.84924108834717</v>
       </c>
       <c r="F9" t="n">
-        <v>0.627764127764128</v>
+        <v>0.915594976338787</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.860658710198207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.792941176470588</v>
+        <v>0.462674568235542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.794117647058824</v>
+        <v>0.622825212244565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.807228915662651</v>
+        <v>0.595663474239895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.816120906801008</v>
+        <v>0.6173402579423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.630372492836676</v>
+        <v>0.656195000018682</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.675914940239378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.891304347826087</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
-        <v>0.847790507364976</v>
+        <v>0.851053229357178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.906040268456376</v>
+        <v>0.805850390510885</v>
       </c>
       <c r="E11" t="n">
-        <v>0.87378640776699</v>
+        <v>0.872821138538858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6211714132187</v>
+        <v>0.918525926845457</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.895272075854311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.57906976744186</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12"/>
       <c r="C12" t="n">
-        <v>0.608247422680412</v>
+        <v>0.84048680723423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.618556701030928</v>
+        <v>0.85341529463417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.667359667359667</v>
+        <v>0.850688255408597</v>
       </c>
       <c r="F12" t="n">
-        <v>0.465809768637532</v>
+        <v>0.898595828901278</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.845427408825504</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -425,22 +425,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.538044440029806</v>
+        <v>0.552678615780989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.702469990857743</v>
+        <v>0.713413135388996</v>
       </c>
       <c r="D2" t="n">
-        <v>0.707293188123593</v>
+        <v>0.717199697245484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.678531476441131</v>
+        <v>0.696389175773997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.795005097178626</v>
+        <v>0.793363188904658</v>
       </c>
       <c r="G2" t="n">
-        <v>0.715842408378674</v>
+        <v>0.700082533617769</v>
       </c>
     </row>
     <row r="3">
@@ -448,22 +448,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.668478309868828</v>
+        <v>0.683804554832922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.816969818943951</v>
+        <v>0.819803356868124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828243452528983</v>
+        <v>0.820949579313687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.808344622780676</v>
+        <v>0.816172410745393</v>
       </c>
       <c r="F3" t="n">
-        <v>0.866080609608524</v>
+        <v>0.872967061466119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.788739473201268</v>
+        <v>0.805354026589349</v>
       </c>
     </row>
     <row r="4">
@@ -471,22 +471,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.586361547078264</v>
+        <v>0.601196598643365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761213696055523</v>
+        <v>0.762013274854374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.767545156610846</v>
+        <v>0.768881175996354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.783881851539796</v>
+        <v>0.787420304969964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.778077888822029</v>
+        <v>0.78328120876413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.736775434783277</v>
+        <v>0.713805249434274</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +494,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.445165647241385</v>
+        <v>0.455585370610103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.519784123197685</v>
+        <v>0.52799504828657</v>
       </c>
       <c r="D5" t="n">
-        <v>0.538272957724401</v>
+        <v>0.531754302117697</v>
       </c>
       <c r="E5" t="n">
-        <v>0.42192097757509</v>
+        <v>0.426674360481551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.623992886988593</v>
+        <v>0.626310033566441</v>
       </c>
       <c r="G5" t="n">
-        <v>0.629002808743572</v>
+        <v>0.610472330207481</v>
       </c>
     </row>
     <row r="6">
@@ -517,22 +517,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.565484343994484</v>
+        <v>0.577737358122849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.694703338925022</v>
+        <v>0.707094231196826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.696738300729926</v>
+        <v>0.686144900374642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.663105221608136</v>
+        <v>0.693112802218392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.764082500232851</v>
+        <v>0.776553512725913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.682020895993832</v>
+        <v>0.71539072785935</v>
       </c>
     </row>
     <row r="7">
@@ -540,22 +540,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.615412381763385</v>
+        <v>0.617437661408779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.728100139398786</v>
+        <v>0.730750170695634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.595780185866169</v>
+        <v>0.581826077993604</v>
       </c>
       <c r="E7" t="n">
-        <v>0.722549697453689</v>
+        <v>0.730479419208702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.81292373408132</v>
+        <v>0.818032378010186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.835305897365594</v>
+        <v>0.831939565915508</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.615539662201057</v>
+        <v>0.626737397097673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.794190438711587</v>
+        <v>0.795905230694343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.815787653966067</v>
+        <v>0.797539349565692</v>
       </c>
       <c r="E8" t="n">
-        <v>0.77283009201333</v>
+        <v>0.783617202168354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.809079647356019</v>
+        <v>0.809114485254114</v>
       </c>
       <c r="G8" t="n">
-        <v>0.843401261799519</v>
+        <v>0.827928209773063</v>
       </c>
     </row>
     <row r="9">
@@ -586,22 +586,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.610092195899231</v>
+        <v>0.619048959139948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.87440141332867</v>
+        <v>0.873966469689942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.906115344887832</v>
+        <v>0.895979258736217</v>
       </c>
       <c r="E9" t="n">
-        <v>0.84924108834717</v>
+        <v>0.857097937005426</v>
       </c>
       <c r="F9" t="n">
-        <v>0.915594976338787</v>
+        <v>0.912833772582112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.860658710198207</v>
+        <v>0.868108589920199</v>
       </c>
     </row>
     <row r="10">
@@ -609,64 +609,68 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.462674568235542</v>
+        <v>0.463168837329091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.622825212244565</v>
+        <v>0.623079158034858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.595663474239895</v>
+        <v>0.581562238065519</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6173402579423</v>
+        <v>0.621347776116407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.656195000018682</v>
+        <v>0.664711397877061</v>
       </c>
       <c r="G10" t="n">
-        <v>0.675914940239378</v>
+        <v>0.667396438072881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C11" t="n">
-        <v>0.851053229357178</v>
+        <v>0.856402881532802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.805850390510885</v>
+        <v>0.806414219211706</v>
       </c>
       <c r="E11" t="n">
-        <v>0.872821138538858</v>
+        <v>0.866530917508828</v>
       </c>
       <c r="F11" t="n">
-        <v>0.918525926845457</v>
+        <v>0.918450192172855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.895272075854311</v>
+        <v>0.883235332357884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C12" t="n">
-        <v>0.84048680723423</v>
+        <v>0.841600760520361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.85341529463417</v>
+        <v>0.839556553373224</v>
       </c>
       <c r="E12" t="n">
-        <v>0.850688255408597</v>
+        <v>0.844399140146124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.898595828901278</v>
+        <v>0.897784600942891</v>
       </c>
       <c r="G12" t="n">
-        <v>0.845427408825504</v>
+        <v>0.83395096994684</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (Eu) for each human</t>
   </si>
   <si>
     <t xml:space="preserve">National tax on millionaires</t>
@@ -425,22 +425,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.552678615780989</v>
+        <v>0.552728777265518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.713413135388996</v>
+        <v>0.7134733472724</v>
       </c>
       <c r="D2" t="n">
-        <v>0.717199697245484</v>
+        <v>0.717102495286766</v>
       </c>
       <c r="E2" t="n">
-        <v>0.696389175773997</v>
+        <v>0.696388097239499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.793363188904658</v>
+        <v>0.784978043214582</v>
       </c>
       <c r="G2" t="n">
-        <v>0.700082533617769</v>
+        <v>0.700061649480014</v>
       </c>
     </row>
     <row r="3">
@@ -448,22 +448,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.683804554832922</v>
+        <v>0.683819916214763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819803356868124</v>
+        <v>0.820239190941552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.820949579313687</v>
+        <v>0.820875807741039</v>
       </c>
       <c r="E3" t="n">
-        <v>0.816172410745393</v>
+        <v>0.816184257428338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.872967061466119</v>
+        <v>0.872916210016187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.805354026589349</v>
+        <v>0.805326640783647</v>
       </c>
     </row>
     <row r="4">
@@ -471,22 +471,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.601196598643365</v>
+        <v>0.601228048137448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.762013274854374</v>
+        <v>0.763223306630975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.768881175996354</v>
+        <v>0.768792763691463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.787420304969964</v>
+        <v>0.787427489951403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.78328120876413</v>
+        <v>0.793375648949289</v>
       </c>
       <c r="G4" t="n">
-        <v>0.713805249434274</v>
+        <v>0.713804625162365</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +494,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.455585370610103</v>
+        <v>0.455724822212522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.52799504828657</v>
+        <v>0.528073195167432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.531754302117697</v>
+        <v>0.531625298077304</v>
       </c>
       <c r="E5" t="n">
-        <v>0.426674360481551</v>
+        <v>0.4266715014713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.626310033566441</v>
+        <v>0.632635612506656</v>
       </c>
       <c r="G5" t="n">
-        <v>0.610472330207481</v>
+        <v>0.610464530962768</v>
       </c>
     </row>
     <row r="6">
@@ -517,22 +517,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.577737358122849</v>
+        <v>0.577843754383455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.707094231196826</v>
+        <v>0.705321850071605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.686144900374642</v>
+        <v>0.686053015963702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.693112802218392</v>
+        <v>0.693093107414932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.776553512725913</v>
+        <v>0.775574271038081</v>
       </c>
       <c r="G6" t="n">
-        <v>0.71539072785935</v>
+        <v>0.715384966230052</v>
       </c>
     </row>
     <row r="7">
@@ -540,22 +540,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.617437661408779</v>
+        <v>0.617475309597398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.730750170695634</v>
+        <v>0.730841386695733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.581826077993604</v>
+        <v>0.581791432777007</v>
       </c>
       <c r="E7" t="n">
-        <v>0.730479419208702</v>
+        <v>0.730462131450109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.818032378010186</v>
+        <v>0.817483851040102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.831939565915508</v>
+        <v>0.831944699227053</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.626737397097673</v>
+        <v>0.62678543767013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.795905230694343</v>
+        <v>0.795988416661824</v>
       </c>
       <c r="D8" t="n">
-        <v>0.797539349565692</v>
+        <v>0.797422504232579</v>
       </c>
       <c r="E8" t="n">
-        <v>0.783617202168354</v>
+        <v>0.78358915943845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.809114485254114</v>
+        <v>0.813862279678343</v>
       </c>
       <c r="G8" t="n">
-        <v>0.827928209773063</v>
+        <v>0.827928985628416</v>
       </c>
     </row>
     <row r="9">
@@ -586,22 +586,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.619048959139948</v>
+        <v>0.619151190902255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.873966469689942</v>
+        <v>0.874495207411491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.895979258736217</v>
+        <v>0.895913525729749</v>
       </c>
       <c r="E9" t="n">
-        <v>0.857097937005426</v>
+        <v>0.857097803370111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.912833772582112</v>
+        <v>0.917358526052847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.868108589920199</v>
+        <v>0.868122871586071</v>
       </c>
     </row>
     <row r="10">
@@ -609,68 +609,68 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.463168837329091</v>
+        <v>0.46333575494323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.623079158034858</v>
+        <v>0.621919070167458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.581562238065519</v>
+        <v>0.581434341080065</v>
       </c>
       <c r="E10" t="n">
-        <v>0.621347776116407</v>
+        <v>0.621313531546367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.664711397877061</v>
+        <v>0.663180570428891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.667396438072881</v>
+        <v>0.667407611854691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="e">
-        <v>#NUM!</v>
+      <c r="B11" t="n">
+        <v>0.741343124344253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.856402881532802</v>
+        <v>0.856783007606696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.806414219211706</v>
+        <v>0.806229028625166</v>
       </c>
       <c r="E11" t="n">
-        <v>0.866530917508828</v>
+        <v>0.866481501161303</v>
       </c>
       <c r="F11" t="n">
-        <v>0.918450192172855</v>
+        <v>0.920607453286365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.883235332357884</v>
+        <v>0.883231205569104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="e">
-        <v>#NUM!</v>
+      <c r="B12" t="n">
+        <v>0.696370298232275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.841600760520361</v>
+        <v>0.842217008043826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.839556553373224</v>
+        <v>0.839403543928279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.844399140146124</v>
+        <v>0.844357414213475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.897784600942891</v>
+        <v>0.904766185188266</v>
       </c>
       <c r="G12" t="n">
-        <v>0.83395096994684</v>
+        <v>0.833943523324582</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -35,31 +35,38 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
   </si>
   <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (Eu) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
   <si>
     <t xml:space="preserve">National tax on millionaires</t>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -435,7 +435,7 @@
         <v>0.552728777265518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7134733472724</v>
+        <v>0.714657631857914</v>
       </c>
       <c r="D2" t="n">
         <v>0.717102495286766</v>
@@ -444,7 +444,7 @@
         <v>0.696388097239499</v>
       </c>
       <c r="F2" t="n">
-        <v>0.784978043214582</v>
+        <v>0.789812073785779</v>
       </c>
       <c r="G2" t="n">
         <v>0.700061649480014</v>
@@ -458,7 +458,7 @@
         <v>0.683819916214763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.820239190941552</v>
+        <v>0.819558096525353</v>
       </c>
       <c r="D3" t="n">
         <v>0.820875807741039</v>
@@ -467,7 +467,7 @@
         <v>0.816184257428338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.872916210016187</v>
+        <v>0.853647571464666</v>
       </c>
       <c r="G3" t="n">
         <v>0.805326640783647</v>
@@ -481,7 +481,7 @@
         <v>0.601228048137448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.763223306630975</v>
+        <v>0.764763757253406</v>
       </c>
       <c r="D4" t="n">
         <v>0.768792763691463</v>
@@ -490,7 +490,7 @@
         <v>0.787427489951403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.793375648949289</v>
+        <v>0.793533860250774</v>
       </c>
       <c r="G4" t="n">
         <v>0.713804625162365</v>
@@ -504,7 +504,7 @@
         <v>0.455724822212522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.528073195167432</v>
+        <v>0.526932121926889</v>
       </c>
       <c r="D5" t="n">
         <v>0.531625298077304</v>
@@ -513,7 +513,7 @@
         <v>0.4266715014713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.632635612506656</v>
+        <v>0.621747780137294</v>
       </c>
       <c r="G5" t="n">
         <v>0.610464530962768</v>
@@ -527,7 +527,7 @@
         <v>0.577843754383455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.705321850071605</v>
+        <v>0.705292862203935</v>
       </c>
       <c r="D6" t="n">
         <v>0.686053015963702</v>
@@ -536,7 +536,7 @@
         <v>0.693093107414932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.775574271038081</v>
+        <v>0.780834273861822</v>
       </c>
       <c r="G6" t="n">
         <v>0.715384966230052</v>
@@ -550,7 +550,7 @@
         <v>0.617475309597398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.730841386695733</v>
+        <v>0.730504661209951</v>
       </c>
       <c r="D7" t="n">
         <v>0.581791432777007</v>
@@ -559,7 +559,7 @@
         <v>0.730462131450109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.817483851040102</v>
+        <v>0.797897393781628</v>
       </c>
       <c r="G7" t="n">
         <v>0.831944699227053</v>
@@ -573,7 +573,7 @@
         <v>0.62678543767013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.795988416661824</v>
+        <v>0.795531688544377</v>
       </c>
       <c r="D8" t="n">
         <v>0.797422504232579</v>
@@ -582,7 +582,7 @@
         <v>0.78358915943845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.813862279678343</v>
+        <v>0.811669808071969</v>
       </c>
       <c r="G8" t="n">
         <v>0.827928985628416</v>
@@ -596,7 +596,7 @@
         <v>0.619151190902255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.874495207411491</v>
+        <v>0.874801725484302</v>
       </c>
       <c r="D9" t="n">
         <v>0.895913525729749</v>
@@ -605,7 +605,7 @@
         <v>0.857097803370111</v>
       </c>
       <c r="F9" t="n">
-        <v>0.917358526052847</v>
+        <v>0.91274070312304</v>
       </c>
       <c r="G9" t="n">
         <v>0.868122871586071</v>
@@ -619,7 +619,7 @@
         <v>0.46333575494323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.621919070167458</v>
+        <v>0.621065025534817</v>
       </c>
       <c r="D10" t="n">
         <v>0.581434341080065</v>
@@ -628,7 +628,7 @@
         <v>0.621313531546367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.663180570428891</v>
+        <v>0.648735078584288</v>
       </c>
       <c r="G10" t="n">
         <v>0.667407611854691</v>
@@ -639,10 +639,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.741343124344253</v>
+        <v>0.709335925887466</v>
       </c>
       <c r="C11" t="n">
-        <v>0.856783007606696</v>
+        <v>0.853956784923197</v>
       </c>
       <c r="D11" t="n">
         <v>0.806229028625166</v>
@@ -651,7 +651,7 @@
         <v>0.866481501161303</v>
       </c>
       <c r="F11" t="n">
-        <v>0.920607453286365</v>
+        <v>0.889136842270953</v>
       </c>
       <c r="G11" t="n">
         <v>0.883231205569104</v>
@@ -662,10 +662,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.696370298232275</v>
+        <v>0.663839043909769</v>
       </c>
       <c r="C12" t="n">
-        <v>0.842217008043826</v>
+        <v>0.839351652890108</v>
       </c>
       <c r="D12" t="n">
         <v>0.839403543928279</v>
@@ -674,7 +674,7 @@
         <v>0.844357414213475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.904766185188266</v>
+        <v>0.8731859020194</v>
       </c>
       <c r="G12" t="n">
         <v>0.833943523324582</v>

--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.709335925887466</v>
+        <v>0.73409839740255</v>
       </c>
       <c r="C11" t="n">
         <v>0.853956784923197</v>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.663839043909769</v>
+        <v>0.690508031455644</v>
       </c>
       <c r="C12" t="n">
         <v>0.839351652890108</v>
